--- a/transformer banking/bin/Debug/exercise/output.xlsx
+++ b/transformer banking/bin/Debug/exercise/output.xlsx
@@ -170,7 +170,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +188,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +525,7 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="15">
         <v>44290</v>
       </c>
       <c r="J2" s="1"/>
@@ -531,11 +533,11 @@
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -543,80 +545,80 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
@@ -632,129 +634,129 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -774,10 +776,10 @@
       <c r="E27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="5" t="s">
         <v>12</v>
       </c>
@@ -795,10 +797,10 @@
       <c r="E28" s="6">
         <v>9.3800000000000008</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>9.3800000000000008</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="6">
         <v>225120</v>
       </c>
@@ -816,10 +818,10 @@
       <c r="E29" s="6">
         <v>9.3800000000000008</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>9.3800000000000008</v>
       </c>
-      <c r="G29" s="12"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="7">
         <v>225120</v>
       </c>
@@ -828,20 +830,20 @@
       <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="9">
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="8">
         <v>0</v>
       </c>
     </row>
@@ -858,10 +860,10 @@
       <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="5" t="s">
         <v>12</v>
       </c>
@@ -879,10 +881,10 @@
       <c r="E34" s="6">
         <v>156.25</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>156.25</v>
       </c>
-      <c r="G34" s="12"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="6">
         <v>225000</v>
       </c>
@@ -900,10 +902,10 @@
       <c r="E35" s="6">
         <v>156.25</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>156.25</v>
       </c>
-      <c r="G35" s="12"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="7">
         <v>225000</v>
       </c>
@@ -912,20 +914,20 @@
       <c r="B36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="9">
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="8">
         <v>0</v>
       </c>
     </row>
